--- a/src/main/resources/Test Data.xlsx
+++ b/src/main/resources/Test Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\IdeaProjects\Automation-Example\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1311AF-7B66-4AD2-8354-7111C1EF79F9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F503FC0C-8A16-456A-8D31-D993F57D271E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{BA7F7B77-CD3E-4B24-90BA-6C131E62AE6D}"/>
   </bookViews>
@@ -27,6 +27,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="70">
   <si>
+    <t xml:space="preserve">First Name </t>
+  </si>
+  <si>
     <t>Last Name</t>
   </si>
   <si>
@@ -232,9 +235,6 @@
   </si>
   <si>
     <t>(646) 200-1546</t>
-  </si>
-  <si>
-    <t>First Name</t>
   </si>
 </sst>
 </file>
@@ -603,7 +603,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,322 +620,322 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E2">
         <v>85044</v>
       </c>
       <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3">
         <v>99835</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>99901</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>99615</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>99603</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>99669</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>99611</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E9">
         <v>99654</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E10">
         <v>99503</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E11">
         <v>99501</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
